--- a/excels/Oxford.xlsx
+++ b/excels/Oxford.xlsx
@@ -1933,7 +1933,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3899.293783293716</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3393.100761215661</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3734.149416665483</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4530.093893529684</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2364.854557667282</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2773.938845272258</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3794.513373913452</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2522.043997217959</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2522.043997217959</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3265.01382917527</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2522.043997217959</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2522.043997217959</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2522.043997217959</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3265.01382917527</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3265.01382917527</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>3265.01382917527</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2522.043997217959</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2522.043997217959</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2522.043997217959</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>3265.01382917527</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>3265.01382917527</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2522.043997217959</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2522.043997217959</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2522.043997217959</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>3265.01382917527</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>3265.01382917527</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2522.043997217959</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2522.043997217959</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>3688.279724096227</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>5295.251675615041</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>5295.251675615041</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>5295.251675615041</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>3688.279724096227</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>3688.279724096227</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>5215.164228941665</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>4926.088199060787</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>4926.088199060787</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>3098.836200898399</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>3098.836200898399</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>3144.813803310052</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>4928.132792039285</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>4928.132792039285</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>4928.132792039285</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>4928.132792039285</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1827.700688815807</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>4928.132792039285</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>4928.132792039285</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>5363.10141317884</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>5363.10141317884</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>5363.10141317884</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>5363.10141317884</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>6140.917212626564</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>5363.10141317884</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>3673.613020656488</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>6140.917212626564</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>5363.10141317884</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>4516.771495330161</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>2562.174584308972</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>4516.771495330161</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>4408.397855866588</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>4408.397855866588</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>4408.397855866588</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>4516.771495330161</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>4408.397855866588</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>4516.771495330161</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>4408.397855866588</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>2562.174584308972</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>4408.397855866588</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>4516.771495330161</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>4408.397855866588</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>3679.129533556942</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>8398.997917995273</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>4408.397855866588</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>4408.397855866588</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>4408.397855866588</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>4408.397855866588</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>4408.397855866588</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>4408.397855866588</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>2562.174584308972</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2562.174584308972</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>3679.129533556942</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>4408.397855866588</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>4408.397855866588</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>2562.174584308972</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>2562.174584308972</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>4408.397855866588</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2562.174584308972</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>2562.174584308972</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>3679.129533556942</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>2562.174584308972</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>2562.174584308972</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>2649.005360333532</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>10619.53543776057</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>10619.53543776057</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>10619.53543776057</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>10619.53543776057</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>2649.005360333532</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>2649.005360333532</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>10619.53543776057</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>10619.53543776057</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>10619.53543776057</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>10619.53543776057</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>10619.53543776057</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>10619.53543776057</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>10619.53543776057</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>5053.579511614056</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>7891.625967838</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>10619.53543776057</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>10619.53543776057</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>3574.224917429206</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>2649.005360333532</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>3897.64145324598</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>10619.53543776057</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>10619.53543776057</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>7891.625967838</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>10619.53543776057</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>10619.53543776057</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>2137.12924359738</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>10619.53543776057</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>3159.309112567004</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>7891.625967838</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>6144.87194758785</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>9828.850506253724</v>
